--- a/modelos/OBAOLE4421026/OBAOLE4421026_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4421026/OBAOLE4421026_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44806</v>
       </c>
       <c r="B2" t="n">
-        <v>46.55873402343332</v>
+        <v>43.96613642849448</v>
       </c>
       <c r="C2" t="n">
-        <v>-314.3996315115222</v>
+        <v>-308.2320728752707</v>
       </c>
       <c r="D2" t="n">
-        <v>375.6371351627911</v>
+        <v>386.2927586325227</v>
       </c>
       <c r="E2" t="n">
         <v>252</v>
@@ -496,13 +496,13 @@
         <v>44810</v>
       </c>
       <c r="B3" t="n">
-        <v>402.5957910846187</v>
+        <v>400.2805156927303</v>
       </c>
       <c r="C3" t="n">
-        <v>67.56670952069254</v>
+        <v>44.61991023397832</v>
       </c>
       <c r="D3" t="n">
-        <v>747.7383434983424</v>
+        <v>748.4336699215072</v>
       </c>
       <c r="E3" t="n">
         <v>240</v>
@@ -516,13 +516,13 @@
         <v>44817</v>
       </c>
       <c r="B4" t="n">
-        <v>629.9685939898352</v>
+        <v>632.2347359342984</v>
       </c>
       <c r="C4" t="n">
-        <v>295.8718461298791</v>
+        <v>302.3814777809846</v>
       </c>
       <c r="D4" t="n">
-        <v>969.5564226473413</v>
+        <v>972.0016361340877</v>
       </c>
       <c r="E4" t="n">
         <v>696</v>
@@ -536,13 +536,13 @@
         <v>44824</v>
       </c>
       <c r="B5" t="n">
-        <v>937.2896927094073</v>
+        <v>936.377394863618</v>
       </c>
       <c r="C5" t="n">
-        <v>604.1480373593838</v>
+        <v>605.6803220098675</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.391925242001</v>
+        <v>1288.372936143356</v>
       </c>
       <c r="E5" t="n">
         <v>300</v>
@@ -556,13 +556,13 @@
         <v>44831</v>
       </c>
       <c r="B6" t="n">
-        <v>1138.171821118394</v>
+        <v>1134.3688193211</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1959368795864</v>
+        <v>822.4649952176388</v>
       </c>
       <c r="D6" t="n">
-        <v>1489.387595689208</v>
+        <v>1461.591576024529</v>
       </c>
       <c r="E6" t="n">
         <v>252</v>
@@ -576,13 +576,13 @@
         <v>44838</v>
       </c>
       <c r="B7" t="n">
-        <v>1183.732626460248</v>
+        <v>1116.803808679864</v>
       </c>
       <c r="C7" t="n">
-        <v>854.7361378014558</v>
+        <v>772.1271573656434</v>
       </c>
       <c r="D7" t="n">
-        <v>1522.914633079646</v>
+        <v>1461.379058256391</v>
       </c>
       <c r="E7" t="n">
         <v>336</v>
@@ -596,13 +596,13 @@
         <v>44845</v>
       </c>
       <c r="B8" t="n">
-        <v>982.346147089984</v>
+        <v>961.130855226641</v>
       </c>
       <c r="C8" t="n">
-        <v>660.7653085860429</v>
+        <v>626.7605045973314</v>
       </c>
       <c r="D8" t="n">
-        <v>1314.133988433344</v>
+        <v>1309.763455462842</v>
       </c>
       <c r="E8" t="n">
         <v>648</v>
@@ -616,13 +616,13 @@
         <v>44852</v>
       </c>
       <c r="B9" t="n">
-        <v>714.4623202332332</v>
+        <v>709.5925134668063</v>
       </c>
       <c r="C9" t="n">
-        <v>382.0530313614578</v>
+        <v>370.6471405753611</v>
       </c>
       <c r="D9" t="n">
-        <v>1051.959091528291</v>
+        <v>1050.15247115553</v>
       </c>
       <c r="E9" t="n">
         <v>588</v>
@@ -636,13 +636,13 @@
         <v>44859</v>
       </c>
       <c r="B10" t="n">
-        <v>379.361676890415</v>
+        <v>374.5603910316882</v>
       </c>
       <c r="C10" t="n">
-        <v>10.26922314559179</v>
+        <v>46.92430011373133</v>
       </c>
       <c r="D10" t="n">
-        <v>741.6176353435935</v>
+        <v>729.1986445832539</v>
       </c>
       <c r="E10" t="n">
         <v>360</v>
@@ -656,13 +656,13 @@
         <v>44865</v>
       </c>
       <c r="B11" t="n">
-        <v>-27.83469774082935</v>
+        <v>-84.59265293456099</v>
       </c>
       <c r="C11" t="n">
-        <v>-362.9119719560359</v>
+        <v>-442.0131298994766</v>
       </c>
       <c r="D11" t="n">
-        <v>322.5365382522511</v>
+        <v>257.578274512543</v>
       </c>
       <c r="E11" t="n">
         <v>144</v>
@@ -676,13 +676,13 @@
         <v>44869</v>
       </c>
       <c r="B12" t="n">
-        <v>-159.0204106379757</v>
+        <v>-184.2021288792678</v>
       </c>
       <c r="C12" t="n">
-        <v>-483.9529799663274</v>
+        <v>-536.1856202231503</v>
       </c>
       <c r="D12" t="n">
-        <v>200.8453436522468</v>
+        <v>161.727416886158</v>
       </c>
       <c r="E12" t="n">
         <v>36</v>
@@ -696,13 +696,13 @@
         <v>44873</v>
       </c>
       <c r="B13" t="n">
-        <v>78.50330273410985</v>
+        <v>50.83295473648435</v>
       </c>
       <c r="C13" t="n">
-        <v>-248.1959446091755</v>
+        <v>-284.928809405892</v>
       </c>
       <c r="D13" t="n">
-        <v>409.8542419569309</v>
+        <v>361.2668141050794</v>
       </c>
       <c r="E13" t="n">
         <v>144</v>
@@ -716,13 +716,13 @@
         <v>44880</v>
       </c>
       <c r="B14" t="n">
-        <v>182.8390561162813</v>
+        <v>165.3901367545128</v>
       </c>
       <c r="C14" t="n">
-        <v>-140.5124576604055</v>
+        <v>-170.7733738455825</v>
       </c>
       <c r="D14" t="n">
-        <v>498.5417677833885</v>
+        <v>489.7776875628796</v>
       </c>
       <c r="E14" t="n">
         <v>192</v>
@@ -736,13 +736,13 @@
         <v>44887</v>
       </c>
       <c r="B15" t="n">
-        <v>276.9476637752274</v>
+        <v>267.6471809251837</v>
       </c>
       <c r="C15" t="n">
-        <v>-103.2546067142561</v>
+        <v>-73.56222987867578</v>
       </c>
       <c r="D15" t="n">
-        <v>621.7318818697217</v>
+        <v>620.6845820720262</v>
       </c>
       <c r="E15" t="n">
         <v>360</v>
@@ -756,13 +756,13 @@
         <v>44894</v>
       </c>
       <c r="B16" t="n">
-        <v>300.2997980583935</v>
+        <v>293.8930387795068</v>
       </c>
       <c r="C16" t="n">
-        <v>-29.83765991112991</v>
+        <v>-50.07727673881115</v>
       </c>
       <c r="D16" t="n">
-        <v>645.6938195752357</v>
+        <v>630.8092572753026</v>
       </c>
       <c r="E16" t="n">
         <v>132</v>
@@ -776,13 +776,13 @@
         <v>44897</v>
       </c>
       <c r="B17" t="n">
-        <v>12.5113940317007</v>
+        <v>5.429619052770732</v>
       </c>
       <c r="C17" t="n">
-        <v>-304.4405943233329</v>
+        <v>-330.9013960482695</v>
       </c>
       <c r="D17" t="n">
-        <v>354.0656973981631</v>
+        <v>326.1286162547762</v>
       </c>
       <c r="E17" t="n">
         <v>204</v>
@@ -796,13 +796,13 @@
         <v>44901</v>
       </c>
       <c r="B18" t="n">
-        <v>238.7038491377511</v>
+        <v>226.0048614913773</v>
       </c>
       <c r="C18" t="n">
-        <v>-90.48705853764395</v>
+        <v>-135.4406357442477</v>
       </c>
       <c r="D18" t="n">
-        <v>575.1110865404365</v>
+        <v>564.2722740733387</v>
       </c>
       <c r="E18" t="n">
         <v>384</v>
@@ -816,13 +816,13 @@
         <v>44908</v>
       </c>
       <c r="B19" t="n">
-        <v>293.5803379335159</v>
+        <v>280.1181676018748</v>
       </c>
       <c r="C19" t="n">
-        <v>-25.12719284271894</v>
+        <v>-100.27703597658</v>
       </c>
       <c r="D19" t="n">
-        <v>613.1040819817525</v>
+        <v>600.1005580823104</v>
       </c>
       <c r="E19" t="n">
         <v>348</v>
@@ -836,13 +836,13 @@
         <v>44915</v>
       </c>
       <c r="B20" t="n">
-        <v>390.7276650551773</v>
+        <v>380.8951186251139</v>
       </c>
       <c r="C20" t="n">
-        <v>54.48937650687459</v>
+        <v>25.61479664574962</v>
       </c>
       <c r="D20" t="n">
-        <v>727.0886916982689</v>
+        <v>724.3845078056175</v>
       </c>
       <c r="E20" t="n">
         <v>336</v>
@@ -856,13 +856,13 @@
         <v>44922</v>
       </c>
       <c r="B21" t="n">
-        <v>470.0077251718542</v>
+        <v>464.6760035346406</v>
       </c>
       <c r="C21" t="n">
-        <v>153.6724788282526</v>
+        <v>106.9403105702987</v>
       </c>
       <c r="D21" t="n">
-        <v>787.5949474216605</v>
+        <v>781.9056656968299</v>
       </c>
       <c r="E21" t="n">
         <v>432</v>
@@ -876,13 +876,13 @@
         <v>44929</v>
       </c>
       <c r="B22" t="n">
-        <v>455.6929876335763</v>
+        <v>452.1344412032047</v>
       </c>
       <c r="C22" t="n">
-        <v>117.4209567793368</v>
+        <v>126.2289254100639</v>
       </c>
       <c r="D22" t="n">
-        <v>789.8722782010682</v>
+        <v>780.3739934164613</v>
       </c>
       <c r="E22" t="n">
         <v>768</v>
@@ -896,13 +896,13 @@
         <v>44943</v>
       </c>
       <c r="B23" t="n">
-        <v>325.2376292538129</v>
+        <v>305.1157360115242</v>
       </c>
       <c r="C23" t="n">
-        <v>-23.29855148550295</v>
+        <v>-26.69405622755535</v>
       </c>
       <c r="D23" t="n">
-        <v>657.6471284608057</v>
+        <v>624.4108024058504</v>
       </c>
       <c r="E23" t="n">
         <v>876</v>
@@ -916,13 +916,13 @@
         <v>44950</v>
       </c>
       <c r="B24" t="n">
-        <v>371.8381001114385</v>
+        <v>359.3817594933488</v>
       </c>
       <c r="C24" t="n">
-        <v>32.055402607217</v>
+        <v>1.285411316420312</v>
       </c>
       <c r="D24" t="n">
-        <v>701.271093404924</v>
+        <v>676.2990980984628</v>
       </c>
       <c r="E24" t="n">
         <v>216</v>
@@ -936,13 +936,13 @@
         <v>44957</v>
       </c>
       <c r="B25" t="n">
-        <v>321.3310368790832</v>
+        <v>306.9205999352391</v>
       </c>
       <c r="C25" t="n">
-        <v>-32.35361125860632</v>
+        <v>-0.4684050188083524</v>
       </c>
       <c r="D25" t="n">
-        <v>664.2139631069099</v>
+        <v>665.9619635997269</v>
       </c>
       <c r="E25" t="n">
         <v>96</v>
@@ -956,13 +956,13 @@
         <v>44960</v>
       </c>
       <c r="B26" t="n">
-        <v>29.93783463353255</v>
+        <v>22.69084315569037</v>
       </c>
       <c r="C26" t="n">
-        <v>-304.441729132426</v>
+        <v>-328.200512759633</v>
       </c>
       <c r="D26" t="n">
-        <v>353.3616358852479</v>
+        <v>347.7052242652134</v>
       </c>
       <c r="E26" t="n">
         <v>84</v>
@@ -976,13 +976,13 @@
         <v>44964</v>
       </c>
       <c r="B27" t="n">
-        <v>220.8187784001601</v>
+        <v>208.9680234634952</v>
       </c>
       <c r="C27" t="n">
-        <v>-130.205750117097</v>
+        <v>-139.1257216467991</v>
       </c>
       <c r="D27" t="n">
-        <v>549.2869610663664</v>
+        <v>559.2612808663951</v>
       </c>
       <c r="E27" t="n">
         <v>48</v>
@@ -996,13 +996,13 @@
         <v>44971</v>
       </c>
       <c r="B28" t="n">
-        <v>123.9090203492953</v>
+        <v>106.0571695546688</v>
       </c>
       <c r="C28" t="n">
-        <v>-194.7926861598328</v>
+        <v>-247.4754748109316</v>
       </c>
       <c r="D28" t="n">
-        <v>460.881484124033</v>
+        <v>449.157796464242</v>
       </c>
       <c r="E28" t="n">
         <v>48</v>
@@ -1016,13 +1016,13 @@
         <v>44980</v>
       </c>
       <c r="B29" t="n">
-        <v>-339.6503279012723</v>
+        <v>-348.7554796235843</v>
       </c>
       <c r="C29" t="n">
-        <v>-675.2751799990693</v>
+        <v>-684.9175760319008</v>
       </c>
       <c r="D29" t="n">
-        <v>-13.58125490072822</v>
+        <v>-5.5885584079755</v>
       </c>
       <c r="E29" t="n">
         <v>192</v>
@@ -1036,13 +1036,13 @@
         <v>44985</v>
       </c>
       <c r="B30" t="n">
-        <v>487.1843599952152</v>
+        <v>453.9022011179092</v>
       </c>
       <c r="C30" t="n">
-        <v>139.1567545490726</v>
+        <v>124.7258619974577</v>
       </c>
       <c r="D30" t="n">
-        <v>830.9512886897013</v>
+        <v>769.5048385533916</v>
       </c>
       <c r="E30" t="n">
         <v>120</v>
@@ -1056,13 +1056,13 @@
         <v>44988</v>
       </c>
       <c r="B31" t="n">
-        <v>379.8179336781245</v>
+        <v>358.3586427248763</v>
       </c>
       <c r="C31" t="n">
-        <v>46.58517674469208</v>
+        <v>13.12279449464211</v>
       </c>
       <c r="D31" t="n">
-        <v>725.9419853492299</v>
+        <v>698.7880893655605</v>
       </c>
       <c r="E31" t="n">
         <v>132</v>
@@ -1076,13 +1076,13 @@
         <v>44992</v>
       </c>
       <c r="B32" t="n">
-        <v>772.4688737630205</v>
+        <v>756.4535363980542</v>
       </c>
       <c r="C32" t="n">
-        <v>449.0765315398175</v>
+        <v>425.2015441725571</v>
       </c>
       <c r="D32" t="n">
-        <v>1105.291946258009</v>
+        <v>1092.622515821746</v>
       </c>
       <c r="E32" t="n">
         <v>156</v>
@@ -1096,13 +1096,13 @@
         <v>44999</v>
       </c>
       <c r="B33" t="n">
-        <v>695.041013762411</v>
+        <v>684.6367034100238</v>
       </c>
       <c r="C33" t="n">
-        <v>374.1406411867295</v>
+        <v>346.4026645958717</v>
       </c>
       <c r="D33" t="n">
-        <v>1004.346788738542</v>
+        <v>1000.367667811302</v>
       </c>
       <c r="E33" t="n">
         <v>288</v>
@@ -1116,13 +1116,13 @@
         <v>45006</v>
       </c>
       <c r="B34" t="n">
-        <v>323.6675207446751</v>
+        <v>317.4425513971256</v>
       </c>
       <c r="C34" t="n">
-        <v>12.54040191628049</v>
+        <v>-40.52503397972114</v>
       </c>
       <c r="D34" t="n">
-        <v>685.7195297635079</v>
+        <v>679.9889702613926</v>
       </c>
       <c r="E34" t="n">
         <v>480</v>
@@ -1136,13 +1136,13 @@
         <v>45013</v>
       </c>
       <c r="B35" t="n">
-        <v>11.63500320955634</v>
+        <v>2.690515859915052</v>
       </c>
       <c r="C35" t="n">
-        <v>-292.6151618211273</v>
+        <v>-347.9134878601562</v>
       </c>
       <c r="D35" t="n">
-        <v>388.3793507921728</v>
+        <v>351.6219471888203</v>
       </c>
       <c r="E35" t="n">
         <v>144</v>
@@ -1156,13 +1156,13 @@
         <v>45020</v>
       </c>
       <c r="B36" t="n">
-        <v>95.60090494753894</v>
+        <v>85.83778954418624</v>
       </c>
       <c r="C36" t="n">
-        <v>-214.4759029586106</v>
+        <v>-245.8111905646262</v>
       </c>
       <c r="D36" t="n">
-        <v>431.7797178335962</v>
+        <v>421.119533731825</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
@@ -1176,13 +1176,13 @@
         <v>45027</v>
       </c>
       <c r="B37" t="n">
-        <v>710.2112017255778</v>
+        <v>699.0881721034763</v>
       </c>
       <c r="C37" t="n">
-        <v>373.7183202322595</v>
+        <v>342.3315770366175</v>
       </c>
       <c r="D37" t="n">
-        <v>1035.139481651772</v>
+        <v>1031.463009813113</v>
       </c>
       <c r="E37" t="n">
         <v>372</v>
@@ -1196,13 +1196,13 @@
         <v>45034</v>
       </c>
       <c r="B38" t="n">
-        <v>1494.311109277384</v>
+        <v>1492.521069170949</v>
       </c>
       <c r="C38" t="n">
-        <v>1160.909705400995</v>
+        <v>1146.357534324054</v>
       </c>
       <c r="D38" t="n">
-        <v>1857.1509438165</v>
+        <v>1817.895789795948</v>
       </c>
       <c r="E38" t="n">
         <v>1284</v>
@@ -1216,13 +1216,13 @@
         <v>45040</v>
       </c>
       <c r="B39" t="n">
-        <v>1793.104157535208</v>
+        <v>1777.801140342032</v>
       </c>
       <c r="C39" t="n">
-        <v>1487.301141867045</v>
+        <v>1439.438189150432</v>
       </c>
       <c r="D39" t="n">
-        <v>2152.101639237821</v>
+        <v>2129.460669852762</v>
       </c>
       <c r="E39" t="n">
         <v>1272</v>
@@ -1236,13 +1236,13 @@
         <v>45048</v>
       </c>
       <c r="B40" t="n">
-        <v>1701.266895797286</v>
+        <v>1694.784706239127</v>
       </c>
       <c r="C40" t="n">
-        <v>1375.844963785931</v>
+        <v>1380.503164603314</v>
       </c>
       <c r="D40" t="n">
-        <v>2016.918745302505</v>
+        <v>2047.580535621963</v>
       </c>
       <c r="E40" t="n">
         <v>840</v>
@@ -1256,13 +1256,13 @@
         <v>45055</v>
       </c>
       <c r="B41" t="n">
-        <v>874.4188229112497</v>
+        <v>858.6933692231449</v>
       </c>
       <c r="C41" t="n">
-        <v>535.0753002898313</v>
+        <v>496.9119764144527</v>
       </c>
       <c r="D41" t="n">
-        <v>1224.585751923496</v>
+        <v>1182.772923671128</v>
       </c>
       <c r="E41" t="n">
         <v>348</v>
@@ -1276,13 +1276,13 @@
         <v>45062</v>
       </c>
       <c r="B42" t="n">
-        <v>223.8371112745493</v>
+        <v>219.8454875790549</v>
       </c>
       <c r="C42" t="n">
-        <v>-143.4909078618897</v>
+        <v>-127.0862952469709</v>
       </c>
       <c r="D42" t="n">
-        <v>582.3713700822933</v>
+        <v>576.2787404201266</v>
       </c>
       <c r="E42" t="n">
         <v>108</v>
@@ -1357,22 +1357,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>36248.68130474965</v>
+        <v>37238.86199883712</v>
       </c>
       <c r="C2" t="n">
-        <v>190.3908645517154</v>
+        <v>192.9737339609646</v>
       </c>
       <c r="D2" t="n">
-        <v>178.7660763254867</v>
+        <v>182.8948345934377</v>
       </c>
       <c r="E2" t="n">
-        <v>1.938430436020219</v>
+        <v>2.072070068890933</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9386696370995062</v>
+        <v>0.9733842203295552</v>
       </c>
       <c r="G2" t="n">
-        <v>1.412486912022591</v>
+        <v>1.47492306937552</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1383,22 +1383,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>93393.51723941516</v>
+        <v>95641.77963615874</v>
       </c>
       <c r="C3" t="n">
-        <v>305.6035294943682</v>
+        <v>309.2600517948588</v>
       </c>
       <c r="D3" t="n">
-        <v>262.6177519817528</v>
+        <v>275.0458656158672</v>
       </c>
       <c r="E3" t="n">
-        <v>1.369957615988202</v>
+        <v>1.532307880605841</v>
       </c>
       <c r="F3" t="n">
-        <v>1.535352550279866</v>
+        <v>1.651143590586706</v>
       </c>
       <c r="G3" t="n">
-        <v>1.291249402098663</v>
+        <v>1.3203851610271</v>
       </c>
       <c r="H3" t="n">
         <v>0.75</v>
@@ -1409,25 +1409,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>138264.9285769836</v>
+        <v>132247.099127808</v>
       </c>
       <c r="C4" t="n">
-        <v>371.8399233231736</v>
+        <v>363.657942478654</v>
       </c>
       <c r="D4" t="n">
-        <v>271.1289314740156</v>
+        <v>266.4358238015307</v>
       </c>
       <c r="E4" t="n">
-        <v>1.101741748351087</v>
+        <v>1.066167872467219</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6774824628525781</v>
+        <v>0.663804442098837</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6404003165694778</v>
+        <v>0.6558892192679826</v>
       </c>
       <c r="H4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7272727272727275</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAOLE4421026/OBAOLE4421026_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4421026/OBAOLE4421026_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B2" t="n">
-        <v>43.96613642849448</v>
+        <v>295.4366302379344</v>
       </c>
       <c r="C2" t="n">
-        <v>-308.2320728752707</v>
+        <v>-10.33282521078496</v>
       </c>
       <c r="D2" t="n">
-        <v>386.2927586325227</v>
+        <v>646.8521459227978</v>
       </c>
       <c r="E2" t="n">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B3" t="n">
-        <v>400.2805156927303</v>
+        <v>8.761212982247825</v>
       </c>
       <c r="C3" t="n">
-        <v>44.61991023397832</v>
+        <v>-334.7992245780388</v>
       </c>
       <c r="D3" t="n">
-        <v>748.4336699215072</v>
+        <v>343.0100501778085</v>
       </c>
       <c r="E3" t="n">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44803</v>
@@ -513,199 +513,199 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="B4" t="n">
-        <v>632.2347359342984</v>
+        <v>377.2386051718703</v>
       </c>
       <c r="C4" t="n">
-        <v>302.3814777809846</v>
+        <v>6.472775103135621</v>
       </c>
       <c r="D4" t="n">
-        <v>972.0016361340877</v>
+        <v>702.5361177425266</v>
       </c>
       <c r="E4" t="n">
-        <v>696</v>
+        <v>240</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="B5" t="n">
-        <v>936.377394863618</v>
+        <v>624.6994181768542</v>
       </c>
       <c r="C5" t="n">
-        <v>605.6803220098675</v>
+        <v>292.217387051453</v>
       </c>
       <c r="D5" t="n">
-        <v>1288.372936143356</v>
+        <v>977.6597624339523</v>
       </c>
       <c r="E5" t="n">
-        <v>300</v>
+        <v>696</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B6" t="n">
-        <v>1134.3688193211</v>
+        <v>944.1526658177635</v>
       </c>
       <c r="C6" t="n">
-        <v>822.4649952176388</v>
+        <v>607.4479670136194</v>
       </c>
       <c r="D6" t="n">
-        <v>1461.591576024529</v>
+        <v>1289.134687610432</v>
       </c>
       <c r="E6" t="n">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B7" t="n">
-        <v>1116.803808679864</v>
+        <v>1132.18528614175</v>
       </c>
       <c r="C7" t="n">
-        <v>772.1271573656434</v>
+        <v>801.9449394879952</v>
       </c>
       <c r="D7" t="n">
-        <v>1461.379058256391</v>
+        <v>1447.709421018646</v>
       </c>
       <c r="E7" t="n">
-        <v>336</v>
+        <v>252</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B8" t="n">
-        <v>961.130855226641</v>
+        <v>1078.377671794699</v>
       </c>
       <c r="C8" t="n">
-        <v>626.7605045973314</v>
+        <v>753.4256713683304</v>
       </c>
       <c r="D8" t="n">
-        <v>1309.763455462842</v>
+        <v>1417.333394169244</v>
       </c>
       <c r="E8" t="n">
-        <v>648</v>
+        <v>336</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B9" t="n">
-        <v>709.5925134668063</v>
+        <v>866.1480240324389</v>
       </c>
       <c r="C9" t="n">
-        <v>370.6471405753611</v>
+        <v>534.1115995359282</v>
       </c>
       <c r="D9" t="n">
-        <v>1050.15247115553</v>
+        <v>1206.377620471008</v>
       </c>
       <c r="E9" t="n">
-        <v>588</v>
+        <v>648</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B10" t="n">
-        <v>374.5603910316882</v>
+        <v>570.5156343069245</v>
       </c>
       <c r="C10" t="n">
-        <v>46.92430011373133</v>
+        <v>217.5864064645656</v>
       </c>
       <c r="D10" t="n">
-        <v>729.1986445832539</v>
+        <v>915.1763873652388</v>
       </c>
       <c r="E10" t="n">
-        <v>360</v>
+        <v>588</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B11" t="n">
-        <v>-84.59265293456099</v>
+        <v>237.0131342485454</v>
       </c>
       <c r="C11" t="n">
-        <v>-442.0131298994766</v>
+        <v>-89.77906749419229</v>
       </c>
       <c r="D11" t="n">
-        <v>257.578274512543</v>
+        <v>559.9563363446795</v>
       </c>
       <c r="E11" t="n">
-        <v>144</v>
+        <v>360</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B12" t="n">
-        <v>-184.2021288792678</v>
+        <v>-171.6596111635506</v>
       </c>
       <c r="C12" t="n">
-        <v>-536.1856202231503</v>
+        <v>-516.3108166384862</v>
       </c>
       <c r="D12" t="n">
-        <v>161.727416886158</v>
+        <v>185.1205220142201</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B13" t="n">
-        <v>50.83295473648435</v>
+        <v>-230.2674423797236</v>
       </c>
       <c r="C13" t="n">
-        <v>-284.928809405892</v>
+        <v>-582.8081281110532</v>
       </c>
       <c r="D13" t="n">
-        <v>361.2668141050794</v>
+        <v>102.8966348829346</v>
       </c>
       <c r="E13" t="n">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44866</v>
@@ -713,99 +713,99 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B14" t="n">
-        <v>165.3901367545128</v>
+        <v>50.9822742742186</v>
       </c>
       <c r="C14" t="n">
-        <v>-170.7733738455825</v>
+        <v>-292.6399943998549</v>
       </c>
       <c r="D14" t="n">
-        <v>489.7776875628796</v>
+        <v>416.4123970036082</v>
       </c>
       <c r="E14" t="n">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B15" t="n">
-        <v>267.6471809251837</v>
+        <v>209.7444039999218</v>
       </c>
       <c r="C15" t="n">
-        <v>-73.56222987867578</v>
+        <v>-125.4072185339458</v>
       </c>
       <c r="D15" t="n">
-        <v>620.6845820720262</v>
+        <v>534.8843645028969</v>
       </c>
       <c r="E15" t="n">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B16" t="n">
-        <v>293.8930387795068</v>
+        <v>299.6657561284277</v>
       </c>
       <c r="C16" t="n">
-        <v>-50.07727673881115</v>
+        <v>-34.44937919863678</v>
       </c>
       <c r="D16" t="n">
-        <v>630.8092572753026</v>
+        <v>642.9830633863058</v>
       </c>
       <c r="E16" t="n">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B17" t="n">
-        <v>5.429619052770732</v>
+        <v>289.6738683753893</v>
       </c>
       <c r="C17" t="n">
-        <v>-330.9013960482695</v>
+        <v>-42.99673175961482</v>
       </c>
       <c r="D17" t="n">
-        <v>326.1286162547762</v>
+        <v>647.4448452990175</v>
       </c>
       <c r="E17" t="n">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B18" t="n">
-        <v>226.0048614913773</v>
+        <v>-17.50731611213737</v>
       </c>
       <c r="C18" t="n">
-        <v>-135.4406357442477</v>
+        <v>-367.419231761917</v>
       </c>
       <c r="D18" t="n">
-        <v>564.2722740733387</v>
+        <v>308.6125924906454</v>
       </c>
       <c r="E18" t="n">
-        <v>384</v>
+        <v>204</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>44894</v>
@@ -813,179 +813,179 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B19" t="n">
-        <v>280.1181676018748</v>
+        <v>207.0036917836229</v>
       </c>
       <c r="C19" t="n">
-        <v>-100.27703597658</v>
+        <v>-151.6918534813883</v>
       </c>
       <c r="D19" t="n">
-        <v>600.1005580823104</v>
+        <v>528.8573427252545</v>
       </c>
       <c r="E19" t="n">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B20" t="n">
-        <v>380.8951186251139</v>
+        <v>283.2058296696031</v>
       </c>
       <c r="C20" t="n">
-        <v>25.61479664574962</v>
+        <v>-61.80340941861915</v>
       </c>
       <c r="D20" t="n">
-        <v>724.3845078056175</v>
+        <v>610.740764902056</v>
       </c>
       <c r="E20" t="n">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="B21" t="n">
-        <v>464.6760035346406</v>
+        <v>410.9527676035017</v>
       </c>
       <c r="C21" t="n">
-        <v>106.9403105702987</v>
+        <v>70.25790440308845</v>
       </c>
       <c r="D21" t="n">
-        <v>781.9056656968299</v>
+        <v>775.5391576350787</v>
       </c>
       <c r="E21" t="n">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B22" t="n">
-        <v>452.1344412032047</v>
+        <v>493.8888751797131</v>
       </c>
       <c r="C22" t="n">
-        <v>126.2289254100639</v>
+        <v>169.4799721333696</v>
       </c>
       <c r="D22" t="n">
-        <v>780.3739934164613</v>
+        <v>826.817477716349</v>
       </c>
       <c r="E22" t="n">
-        <v>768</v>
+        <v>432</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
       <c r="B23" t="n">
-        <v>305.1157360115242</v>
+        <v>450.2173178418748</v>
       </c>
       <c r="C23" t="n">
-        <v>-26.69405622755535</v>
+        <v>125.881546268016</v>
       </c>
       <c r="D23" t="n">
-        <v>624.4108024058504</v>
+        <v>789.7710640690686</v>
       </c>
       <c r="E23" t="n">
-        <v>876</v>
+        <v>768</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B24" t="n">
-        <v>359.3817594933488</v>
+        <v>283.3790828019306</v>
       </c>
       <c r="C24" t="n">
-        <v>1.285411316420312</v>
+        <v>-49.12800472297418</v>
       </c>
       <c r="D24" t="n">
-        <v>676.2990980984628</v>
+        <v>616.3728470164051</v>
       </c>
       <c r="E24" t="n">
-        <v>216</v>
+        <v>876</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B25" t="n">
-        <v>306.9205999352391</v>
+        <v>374.8326840409504</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.4684050188083524</v>
+        <v>25.06447091327831</v>
       </c>
       <c r="D25" t="n">
-        <v>665.9619635997269</v>
+        <v>701.754333653109</v>
       </c>
       <c r="E25" t="n">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B26" t="n">
-        <v>22.69084315569037</v>
+        <v>344.2227166896041</v>
       </c>
       <c r="C26" t="n">
-        <v>-328.200512759633</v>
+        <v>-18.29023278432139</v>
       </c>
       <c r="D26" t="n">
-        <v>347.7052242652134</v>
+        <v>649.0961134718546</v>
       </c>
       <c r="E26" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B27" t="n">
-        <v>208.9680234634952</v>
+        <v>31.91036905634606</v>
       </c>
       <c r="C27" t="n">
-        <v>-139.1257216467991</v>
+        <v>-321.1607821049406</v>
       </c>
       <c r="D27" t="n">
-        <v>559.2612808663951</v>
+        <v>380.6564033824975</v>
       </c>
       <c r="E27" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>44957</v>
@@ -993,59 +993,59 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B28" t="n">
-        <v>106.0571695546688</v>
+        <v>206.4508429464512</v>
       </c>
       <c r="C28" t="n">
-        <v>-247.4754748109316</v>
+        <v>-136.6278774785841</v>
       </c>
       <c r="D28" t="n">
-        <v>449.157796464242</v>
+        <v>522.1477028777673</v>
       </c>
       <c r="E28" t="n">
         <v>48</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B29" t="n">
-        <v>-348.7554796235843</v>
+        <v>51.58710834145253</v>
       </c>
       <c r="C29" t="n">
-        <v>-684.9175760319008</v>
+        <v>-289.4208166054649</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.5885584079755</v>
+        <v>395.6828523743649</v>
       </c>
       <c r="E29" t="n">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B30" t="n">
-        <v>453.9022011179092</v>
+        <v>-445.2910757070567</v>
       </c>
       <c r="C30" t="n">
-        <v>124.7258619974577</v>
+        <v>-771.1965380531369</v>
       </c>
       <c r="D30" t="n">
-        <v>769.5048385533916</v>
+        <v>-120.6614355708167</v>
       </c>
       <c r="E30" t="n">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>44978</v>
@@ -1053,39 +1053,39 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B31" t="n">
-        <v>358.3586427248763</v>
+        <v>499.7120038417531</v>
       </c>
       <c r="C31" t="n">
-        <v>13.12279449464211</v>
+        <v>160.6444727515704</v>
       </c>
       <c r="D31" t="n">
-        <v>698.7880893655605</v>
+        <v>841.0191613923715</v>
       </c>
       <c r="E31" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B32" t="n">
-        <v>756.4535363980542</v>
+        <v>443.4078841996045</v>
       </c>
       <c r="C32" t="n">
-        <v>425.2015441725571</v>
+        <v>98.84563911036251</v>
       </c>
       <c r="D32" t="n">
-        <v>1092.622515821746</v>
+        <v>784.3993206979724</v>
       </c>
       <c r="E32" t="n">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>44985</v>
@@ -1093,201 +1093,221 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B33" t="n">
-        <v>684.6367034100238</v>
+        <v>928.6880612602747</v>
       </c>
       <c r="C33" t="n">
-        <v>346.4026645958717</v>
+        <v>620.2435273576318</v>
       </c>
       <c r="D33" t="n">
-        <v>1000.367667811302</v>
+        <v>1263.987220977776</v>
       </c>
       <c r="E33" t="n">
-        <v>288</v>
+        <v>156</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B34" t="n">
-        <v>317.4425513971256</v>
+        <v>914.8064649456068</v>
       </c>
       <c r="C34" t="n">
-        <v>-40.52503397972114</v>
+        <v>570.7982410485401</v>
       </c>
       <c r="D34" t="n">
-        <v>679.9889702613926</v>
+        <v>1249.10367174671</v>
       </c>
       <c r="E34" t="n">
-        <v>480</v>
+        <v>288</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B35" t="n">
-        <v>2.690515859915052</v>
+        <v>491.6308806362871</v>
       </c>
       <c r="C35" t="n">
-        <v>-347.9134878601562</v>
+        <v>153.055260937712</v>
       </c>
       <c r="D35" t="n">
-        <v>351.6219471888203</v>
+        <v>845.5528871994289</v>
       </c>
       <c r="E35" t="n">
-        <v>144</v>
+        <v>480</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B36" t="n">
-        <v>85.83778954418624</v>
+        <v>52.08103415681219</v>
       </c>
       <c r="C36" t="n">
-        <v>-245.8111905646262</v>
+        <v>-294.2569751389969</v>
       </c>
       <c r="D36" t="n">
-        <v>421.119533731825</v>
+        <v>391.4373240438545</v>
       </c>
       <c r="E36" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B37" t="n">
-        <v>699.0881721034763</v>
+        <v>27.99765863164569</v>
       </c>
       <c r="C37" t="n">
-        <v>342.3315770366175</v>
+        <v>-297.9663165359398</v>
       </c>
       <c r="D37" t="n">
-        <v>1031.463009813113</v>
+        <v>355.4115058227892</v>
       </c>
       <c r="E37" t="n">
-        <v>372</v>
+        <v>120</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B38" t="n">
-        <v>1492.521069170949</v>
+        <v>645.0690673425275</v>
       </c>
       <c r="C38" t="n">
-        <v>1146.357534324054</v>
+        <v>302.7617514683589</v>
       </c>
       <c r="D38" t="n">
-        <v>1817.895789795948</v>
+        <v>987.5398006243449</v>
       </c>
       <c r="E38" t="n">
-        <v>1284</v>
+        <v>372</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B39" t="n">
-        <v>1777.801140342032</v>
+        <v>1470.259522813884</v>
       </c>
       <c r="C39" t="n">
-        <v>1439.438189150432</v>
+        <v>1117.389365143466</v>
       </c>
       <c r="D39" t="n">
-        <v>2129.460669852762</v>
+        <v>1830.685164751018</v>
       </c>
       <c r="E39" t="n">
-        <v>1272</v>
+        <v>1284</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B40" t="n">
-        <v>1694.784706239127</v>
+        <v>1783.186750100513</v>
       </c>
       <c r="C40" t="n">
-        <v>1380.503164603314</v>
+        <v>1446.033381427553</v>
       </c>
       <c r="D40" t="n">
-        <v>2047.580535621963</v>
+        <v>2138.898558241128</v>
       </c>
       <c r="E40" t="n">
-        <v>840</v>
+        <v>1272</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B41" t="n">
-        <v>858.6933692231449</v>
+        <v>1707.471332402196</v>
       </c>
       <c r="C41" t="n">
-        <v>496.9119764144527</v>
+        <v>1376.200983410429</v>
       </c>
       <c r="D41" t="n">
-        <v>1182.772923671128</v>
+        <v>2036.35319046547</v>
       </c>
       <c r="E41" t="n">
-        <v>348</v>
+        <v>840</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B42" t="n">
+        <v>844.9245383337638</v>
+      </c>
+      <c r="C42" t="n">
+        <v>500.4047120885898</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1190.013286100188</v>
+      </c>
+      <c r="E42" t="n">
+        <v>348</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B42" t="n">
-        <v>219.8454875790549</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-127.0862952469709</v>
-      </c>
-      <c r="D42" t="n">
-        <v>576.2787404201266</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="B43" t="n">
+        <v>184.3341661936117</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-150.1548455869128</v>
+      </c>
+      <c r="D43" t="n">
+        <v>543.0332432816573</v>
+      </c>
+      <c r="E43" t="n">
         <v>108</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F43" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1357,22 +1377,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>37238.86199883712</v>
+        <v>55763.4298932059</v>
       </c>
       <c r="C2" t="n">
-        <v>192.9737339609646</v>
+        <v>236.1428167300583</v>
       </c>
       <c r="D2" t="n">
-        <v>182.8948345934377</v>
+        <v>218.9022121305744</v>
       </c>
       <c r="E2" t="n">
-        <v>2.072070068890933</v>
+        <v>2.485327318936976</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9733842203295552</v>
+        <v>1.085820177020281</v>
       </c>
       <c r="G2" t="n">
-        <v>1.47492306937552</v>
+        <v>1.569357438783732</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1383,22 +1403,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>95641.77963615874</v>
+        <v>118119.9358461651</v>
       </c>
       <c r="C3" t="n">
-        <v>309.2600517948588</v>
+        <v>343.6858097829544</v>
       </c>
       <c r="D3" t="n">
-        <v>275.0458656158672</v>
+        <v>316.1626963813031</v>
       </c>
       <c r="E3" t="n">
-        <v>1.532307880605841</v>
+        <v>1.891152911704837</v>
       </c>
       <c r="F3" t="n">
-        <v>1.651143590586706</v>
+        <v>2.275615635478002</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3203851610271</v>
+        <v>1.368337557936465</v>
       </c>
       <c r="H3" t="n">
         <v>0.75</v>
@@ -1409,25 +1429,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>132247.099127808</v>
+        <v>140197.439066414</v>
       </c>
       <c r="C4" t="n">
-        <v>363.657942478654</v>
+        <v>374.4294847717177</v>
       </c>
       <c r="D4" t="n">
-        <v>266.4358238015307</v>
+        <v>266.4419810624377</v>
       </c>
       <c r="E4" t="n">
-        <v>1.066167872467219</v>
+        <v>1.092366975475169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.663804442098837</v>
+        <v>0.661232162498044</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6558892192679826</v>
+        <v>0.6367446042891487</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7272727272727275</v>
+        <v>0.7352941176470589</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAOLE4421026/OBAOLE4421026_Sell in_metricas.xlsx
+++ b/modelos/OBAOLE4421026/OBAOLE4421026_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B2" t="n">
+        <v>43.89769638739193</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-293.3191107736858</v>
+      </c>
+      <c r="D2" t="n">
+        <v>391.2666615652248</v>
+      </c>
+      <c r="E2" t="n">
+        <v>252</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44803</v>
-      </c>
-      <c r="B2" t="n">
-        <v>295.4366302379344</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-10.33282521078496</v>
-      </c>
-      <c r="D2" t="n">
-        <v>646.8521459227978</v>
-      </c>
-      <c r="E2" t="n">
-        <v>132</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="B3" t="n">
-        <v>8.761212982247825</v>
+        <v>400.1639455833703</v>
       </c>
       <c r="C3" t="n">
-        <v>-334.7992245780388</v>
+        <v>53.27749823791375</v>
       </c>
       <c r="D3" t="n">
-        <v>343.0100501778085</v>
+        <v>756.9910917152869</v>
       </c>
       <c r="E3" t="n">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44803</v>
@@ -513,199 +513,199 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B4" t="n">
+        <v>629.9764222552477</v>
+      </c>
+      <c r="C4" t="n">
+        <v>282.3135354678536</v>
+      </c>
+      <c r="D4" t="n">
+        <v>966.1567687607055</v>
+      </c>
+      <c r="E4" t="n">
+        <v>696</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44810</v>
-      </c>
-      <c r="B4" t="n">
-        <v>377.2386051718703</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.472775103135621</v>
-      </c>
-      <c r="D4" t="n">
-        <v>702.5361177425266</v>
-      </c>
-      <c r="E4" t="n">
-        <v>240</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B5" t="n">
+        <v>935.9850914789873</v>
+      </c>
+      <c r="C5" t="n">
+        <v>610.8192121615782</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1287.829646406837</v>
+      </c>
+      <c r="E5" t="n">
+        <v>300</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44817</v>
-      </c>
-      <c r="B5" t="n">
-        <v>624.6994181768542</v>
-      </c>
-      <c r="C5" t="n">
-        <v>292.217387051453</v>
-      </c>
-      <c r="D5" t="n">
-        <v>977.6597624339523</v>
-      </c>
-      <c r="E5" t="n">
-        <v>696</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44810</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1133.820193534049</v>
+      </c>
+      <c r="C6" t="n">
+        <v>778.6163276329972</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1458.692553167932</v>
+      </c>
+      <c r="E6" t="n">
+        <v>252</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44824</v>
-      </c>
-      <c r="B6" t="n">
-        <v>944.1526658177635</v>
-      </c>
-      <c r="C6" t="n">
-        <v>607.4479670136194</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1289.134687610432</v>
-      </c>
-      <c r="E6" t="n">
-        <v>300</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1108.110458217649</v>
+      </c>
+      <c r="C7" t="n">
+        <v>768.5034788406505</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1458.540371046247</v>
+      </c>
+      <c r="E7" t="n">
+        <v>336</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44831</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1132.18528614175</v>
-      </c>
-      <c r="C7" t="n">
-        <v>801.9449394879952</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1447.709421018646</v>
-      </c>
-      <c r="E7" t="n">
-        <v>252</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B8" t="n">
+        <v>962.8878299148912</v>
+      </c>
+      <c r="C8" t="n">
+        <v>603.5824409667939</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1286.8351990449</v>
+      </c>
+      <c r="E8" t="n">
+        <v>648</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44838</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1078.377671794699</v>
-      </c>
-      <c r="C8" t="n">
-        <v>753.4256713683304</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1417.333394169244</v>
-      </c>
-      <c r="E8" t="n">
-        <v>336</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B9" t="n">
+        <v>709.4537548045718</v>
+      </c>
+      <c r="C9" t="n">
+        <v>351.5114989824588</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1070.846577301141</v>
+      </c>
+      <c r="E9" t="n">
+        <v>588</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44845</v>
-      </c>
-      <c r="B9" t="n">
-        <v>866.1480240324389</v>
-      </c>
-      <c r="C9" t="n">
-        <v>534.1115995359282</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1206.377620471008</v>
-      </c>
-      <c r="E9" t="n">
-        <v>648</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44838</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B10" t="n">
+        <v>374.3770268088924</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.56126951062485</v>
+      </c>
+      <c r="D10" t="n">
+        <v>701.0313568720093</v>
+      </c>
+      <c r="E10" t="n">
+        <v>360</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44852</v>
-      </c>
-      <c r="B10" t="n">
-        <v>570.5156343069245</v>
-      </c>
-      <c r="C10" t="n">
-        <v>217.5864064645656</v>
-      </c>
-      <c r="D10" t="n">
-        <v>915.1763873652388</v>
-      </c>
-      <c r="E10" t="n">
-        <v>588</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-84.61450172952271</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-434.0263903617666</v>
+      </c>
+      <c r="D11" t="n">
+        <v>240.601978193508</v>
+      </c>
+      <c r="E11" t="n">
+        <v>144</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44859</v>
-      </c>
-      <c r="B11" t="n">
-        <v>237.0131342485454</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-89.77906749419229</v>
-      </c>
-      <c r="D11" t="n">
-        <v>559.9563363446795</v>
-      </c>
-      <c r="E11" t="n">
-        <v>360</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B12" t="n">
-        <v>-171.6596111635506</v>
+        <v>-184.852694112289</v>
       </c>
       <c r="C12" t="n">
-        <v>-516.3108166384862</v>
+        <v>-528.3902514470626</v>
       </c>
       <c r="D12" t="n">
-        <v>185.1205220142201</v>
+        <v>157.3243324813455</v>
       </c>
       <c r="E12" t="n">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B13" t="n">
-        <v>-230.2674423797236</v>
+        <v>50.54298597511068</v>
       </c>
       <c r="C13" t="n">
-        <v>-582.8081281110532</v>
+        <v>-297.6537142693125</v>
       </c>
       <c r="D13" t="n">
-        <v>102.8966348829346</v>
+        <v>402.4821202759149</v>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44866</v>
@@ -713,99 +713,99 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B14" t="n">
+        <v>165.3619608351695</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-182.004382655832</v>
+      </c>
+      <c r="D14" t="n">
+        <v>492.9115708995701</v>
+      </c>
+      <c r="E14" t="n">
+        <v>192</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B14" t="n">
-        <v>50.9822742742186</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-292.6399943998549</v>
-      </c>
-      <c r="D14" t="n">
-        <v>416.4123970036082</v>
-      </c>
-      <c r="E14" t="n">
-        <v>144</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B15" t="n">
+        <v>266.2594425267308</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-69.9071131836788</v>
+      </c>
+      <c r="D15" t="n">
+        <v>620.0035342461492</v>
+      </c>
+      <c r="E15" t="n">
+        <v>360</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44880</v>
-      </c>
-      <c r="B15" t="n">
-        <v>209.7444039999218</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-125.4072185339458</v>
-      </c>
-      <c r="D15" t="n">
-        <v>534.8843645028969</v>
-      </c>
-      <c r="E15" t="n">
-        <v>192</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B16" t="n">
+        <v>289.3099568400328</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-42.8762354356142</v>
+      </c>
+      <c r="D16" t="n">
+        <v>634.3376576180787</v>
+      </c>
+      <c r="E16" t="n">
+        <v>132</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="B16" t="n">
-        <v>299.6657561284277</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-34.44937919863678</v>
-      </c>
-      <c r="D16" t="n">
-        <v>642.9830633863058</v>
-      </c>
-      <c r="E16" t="n">
-        <v>360</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44880</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.44116746404957</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-328.3094029576835</v>
+      </c>
+      <c r="D17" t="n">
+        <v>344.2945477543086</v>
+      </c>
+      <c r="E17" t="n">
+        <v>204</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B17" t="n">
-        <v>289.6738683753893</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-42.99673175961482</v>
-      </c>
-      <c r="D17" t="n">
-        <v>647.4448452990175</v>
-      </c>
-      <c r="E17" t="n">
-        <v>132</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B18" t="n">
-        <v>-17.50731611213737</v>
+        <v>224.3272461498146</v>
       </c>
       <c r="C18" t="n">
-        <v>-367.419231761917</v>
+        <v>-107.2358644502805</v>
       </c>
       <c r="D18" t="n">
-        <v>308.6125924906454</v>
+        <v>564.4610193469412</v>
       </c>
       <c r="E18" t="n">
-        <v>204</v>
+        <v>384</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>44894</v>
@@ -813,179 +813,179 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B19" t="n">
+        <v>279.9673667643142</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-64.6629269941145</v>
+      </c>
+      <c r="D19" t="n">
+        <v>667.8871442460706</v>
+      </c>
+      <c r="E19" t="n">
+        <v>348</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B19" t="n">
-        <v>207.0036917836229</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-151.6918534813883</v>
-      </c>
-      <c r="D19" t="n">
-        <v>528.8573427252545</v>
-      </c>
-      <c r="E19" t="n">
-        <v>384</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B20" t="n">
+        <v>380.8419109404493</v>
+      </c>
+      <c r="C20" t="n">
+        <v>37.66095085039619</v>
+      </c>
+      <c r="D20" t="n">
+        <v>692.3594815177743</v>
+      </c>
+      <c r="E20" t="n">
+        <v>336</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B20" t="n">
-        <v>283.2058296696031</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-61.80340941861915</v>
-      </c>
-      <c r="D20" t="n">
-        <v>610.740764902056</v>
-      </c>
-      <c r="E20" t="n">
-        <v>348</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B21" t="n">
+        <v>465.8174588650882</v>
+      </c>
+      <c r="C21" t="n">
+        <v>126.5276588139144</v>
+      </c>
+      <c r="D21" t="n">
+        <v>793.9783570553448</v>
+      </c>
+      <c r="E21" t="n">
+        <v>432</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>44915</v>
-      </c>
-      <c r="B21" t="n">
-        <v>410.9527676035017</v>
-      </c>
-      <c r="C21" t="n">
-        <v>70.25790440308845</v>
-      </c>
-      <c r="D21" t="n">
-        <v>775.5391576350787</v>
-      </c>
-      <c r="E21" t="n">
-        <v>336</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B22" t="n">
+        <v>447.2547202374413</v>
+      </c>
+      <c r="C22" t="n">
+        <v>120.651685007682</v>
+      </c>
+      <c r="D22" t="n">
+        <v>776.0466110536033</v>
+      </c>
+      <c r="E22" t="n">
+        <v>768</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B22" t="n">
-        <v>493.8888751797131</v>
-      </c>
-      <c r="C22" t="n">
-        <v>169.4799721333696</v>
-      </c>
-      <c r="D22" t="n">
-        <v>826.817477716349</v>
-      </c>
-      <c r="E22" t="n">
-        <v>432</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="B23" t="n">
-        <v>450.2173178418748</v>
+        <v>305.2099676258237</v>
       </c>
       <c r="C23" t="n">
-        <v>125.881546268016</v>
+        <v>-57.42341388762785</v>
       </c>
       <c r="D23" t="n">
-        <v>789.7710640690686</v>
+        <v>626.966679920315</v>
       </c>
       <c r="E23" t="n">
-        <v>768</v>
+        <v>876</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B24" t="n">
+        <v>360.6020807972241</v>
+      </c>
+      <c r="C24" t="n">
+        <v>37.66632442829789</v>
+      </c>
+      <c r="D24" t="n">
+        <v>685.5221624801222</v>
+      </c>
+      <c r="E24" t="n">
+        <v>216</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>44943</v>
-      </c>
-      <c r="B24" t="n">
-        <v>283.3790828019306</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-49.12800472297418</v>
-      </c>
-      <c r="D24" t="n">
-        <v>616.3728470164051</v>
-      </c>
-      <c r="E24" t="n">
-        <v>876</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>44936</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B25" t="n">
+        <v>313.4734960595505</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-43.25385996094103</v>
+      </c>
+      <c r="D25" t="n">
+        <v>648.9116544437578</v>
+      </c>
+      <c r="E25" t="n">
+        <v>96</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>44950</v>
-      </c>
-      <c r="B25" t="n">
-        <v>374.8326840409504</v>
-      </c>
-      <c r="C25" t="n">
-        <v>25.06447091327831</v>
-      </c>
-      <c r="D25" t="n">
-        <v>701.754333653109</v>
-      </c>
-      <c r="E25" t="n">
-        <v>216</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>44943</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23.67768332524278</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-291.4270219128161</v>
+      </c>
+      <c r="D26" t="n">
+        <v>389.853507260285</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B26" t="n">
-        <v>344.2227166896041</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-18.29023278432139</v>
-      </c>
-      <c r="D26" t="n">
-        <v>649.0961134718546</v>
-      </c>
-      <c r="E26" t="n">
-        <v>96</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B27" t="n">
-        <v>31.91036905634606</v>
+        <v>212.2368293527239</v>
       </c>
       <c r="C27" t="n">
-        <v>-321.1607821049406</v>
+        <v>-114.5318441610459</v>
       </c>
       <c r="D27" t="n">
-        <v>380.6564033824975</v>
+        <v>544.2956157372784</v>
       </c>
       <c r="E27" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>44957</v>
@@ -993,59 +993,59 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44964</v>
+        <v>44971</v>
       </c>
       <c r="B28" t="n">
-        <v>206.4508429464512</v>
+        <v>105.7727540676175</v>
       </c>
       <c r="C28" t="n">
-        <v>-136.6278774785841</v>
+        <v>-222.2835343468654</v>
       </c>
       <c r="D28" t="n">
-        <v>522.1477028777673</v>
+        <v>427.8946027430274</v>
       </c>
       <c r="E28" t="n">
         <v>48</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44957</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B29" t="n">
-        <v>51.58710834145253</v>
+        <v>-348.6555739615529</v>
       </c>
       <c r="C29" t="n">
-        <v>-289.4208166054649</v>
+        <v>-680.969169850145</v>
       </c>
       <c r="D29" t="n">
-        <v>395.6828523743649</v>
+        <v>-11.96996342235565</v>
       </c>
       <c r="E29" t="n">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B30" t="n">
-        <v>-445.2910757070567</v>
+        <v>453.6774962393207</v>
       </c>
       <c r="C30" t="n">
-        <v>-771.1965380531369</v>
+        <v>110.3299955761882</v>
       </c>
       <c r="D30" t="n">
-        <v>-120.6614355708167</v>
+        <v>797.1052530258592</v>
       </c>
       <c r="E30" t="n">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>44978</v>
@@ -1053,39 +1053,39 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B31" t="n">
+        <v>358.1367734883189</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16.33842006515172</v>
+      </c>
+      <c r="D31" t="n">
+        <v>708.7329111876415</v>
+      </c>
+      <c r="E31" t="n">
+        <v>132</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B31" t="n">
-        <v>499.7120038417531</v>
-      </c>
-      <c r="C31" t="n">
-        <v>160.6444727515704</v>
-      </c>
-      <c r="D31" t="n">
-        <v>841.0191613923715</v>
-      </c>
-      <c r="E31" t="n">
-        <v>120</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B32" t="n">
-        <v>443.4078841996045</v>
+        <v>754.26728253746</v>
       </c>
       <c r="C32" t="n">
-        <v>98.84563911036251</v>
+        <v>421.4854430641519</v>
       </c>
       <c r="D32" t="n">
-        <v>784.3993206979724</v>
+        <v>1077.837357959834</v>
       </c>
       <c r="E32" t="n">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>44985</v>
@@ -1093,221 +1093,201 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>682.9186309009669</v>
+      </c>
+      <c r="C33" t="n">
+        <v>338.8761467902975</v>
+      </c>
+      <c r="D33" t="n">
+        <v>998.9054936662909</v>
+      </c>
+      <c r="E33" t="n">
+        <v>288</v>
+      </c>
+      <c r="F33" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B33" t="n">
-        <v>928.6880612602747</v>
-      </c>
-      <c r="C33" t="n">
-        <v>620.2435273576318</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1263.987220977776</v>
-      </c>
-      <c r="E33" t="n">
-        <v>156</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B34" t="n">
+        <v>317.4419341666072</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.077578799512737</v>
+      </c>
+      <c r="D34" t="n">
+        <v>687.4467040140855</v>
+      </c>
+      <c r="E34" t="n">
+        <v>480</v>
+      </c>
+      <c r="F34" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B34" t="n">
-        <v>914.8064649456068</v>
-      </c>
-      <c r="C34" t="n">
-        <v>570.7982410485401</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1249.10367174671</v>
-      </c>
-      <c r="E34" t="n">
-        <v>288</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.674007269979981</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-342.5819966443178</v>
+      </c>
+      <c r="D35" t="n">
+        <v>336.0970935706306</v>
+      </c>
+      <c r="E35" t="n">
+        <v>144</v>
+      </c>
+      <c r="F35" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B35" t="n">
-        <v>491.6308806362871</v>
-      </c>
-      <c r="C35" t="n">
-        <v>153.055260937712</v>
-      </c>
-      <c r="D35" t="n">
-        <v>845.5528871994289</v>
-      </c>
-      <c r="E35" t="n">
-        <v>480</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B36" t="n">
+        <v>84.86637654892935</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-266.9567483392017</v>
+      </c>
+      <c r="D36" t="n">
+        <v>420.513453225489</v>
+      </c>
+      <c r="E36" t="n">
+        <v>120</v>
+      </c>
+      <c r="F36" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B36" t="n">
-        <v>52.08103415681219</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-294.2569751389969</v>
-      </c>
-      <c r="D36" t="n">
-        <v>391.4373240438545</v>
-      </c>
-      <c r="E36" t="n">
-        <v>144</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B37" t="n">
+        <v>699.0744327446245</v>
+      </c>
+      <c r="C37" t="n">
+        <v>349.0626119850443</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1001.554341920807</v>
+      </c>
+      <c r="E37" t="n">
+        <v>372</v>
+      </c>
+      <c r="F37" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B37" t="n">
-        <v>27.99765863164569</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-297.9663165359398</v>
-      </c>
-      <c r="D37" t="n">
-        <v>355.4115058227892</v>
-      </c>
-      <c r="E37" t="n">
-        <v>120</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1492.527066610167</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1153.983338024214</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1817.357895419388</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1284</v>
+      </c>
+      <c r="F38" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B38" t="n">
-        <v>645.0690673425275</v>
-      </c>
-      <c r="C38" t="n">
-        <v>302.7617514683589</v>
-      </c>
-      <c r="D38" t="n">
-        <v>987.5398006243449</v>
-      </c>
-      <c r="E38" t="n">
-        <v>372</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1774.411430980456</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1446.47824308732</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2135.610905700868</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F39" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1470.259522813884</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1117.389365143466</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1830.685164751018</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1284</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B40" t="n">
-        <v>1783.186750100513</v>
+        <v>1691.468102137818</v>
       </c>
       <c r="C40" t="n">
-        <v>1446.033381427553</v>
+        <v>1352.836442770786</v>
       </c>
       <c r="D40" t="n">
-        <v>2138.898558241128</v>
+        <v>2031.059363453593</v>
       </c>
       <c r="E40" t="n">
-        <v>1272</v>
+        <v>840</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B41" t="n">
+        <v>858.7036925519811</v>
+      </c>
+      <c r="C41" t="n">
+        <v>502.1673995552458</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1211.571440319599</v>
+      </c>
+      <c r="E41" t="n">
+        <v>348</v>
+      </c>
+      <c r="F41" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1707.471332402196</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1376.200983410429</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2036.35319046547</v>
-      </c>
-      <c r="E41" t="n">
-        <v>840</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B42" t="n">
-        <v>844.9245383337638</v>
+        <v>219.6826729295615</v>
       </c>
       <c r="C42" t="n">
-        <v>500.4047120885898</v>
+        <v>-135.0099135361467</v>
       </c>
       <c r="D42" t="n">
-        <v>1190.013286100188</v>
+        <v>555.4419543431484</v>
       </c>
       <c r="E42" t="n">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B43" t="n">
-        <v>184.3341661936117</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-150.1548455869128</v>
-      </c>
-      <c r="D43" t="n">
-        <v>543.0332432816573</v>
-      </c>
-      <c r="E43" t="n">
-        <v>108</v>
-      </c>
-      <c r="F43" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1377,22 +1357,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>55763.4298932059</v>
+        <v>37256.94269125738</v>
       </c>
       <c r="C2" t="n">
-        <v>236.1428167300583</v>
+        <v>193.0205758235566</v>
       </c>
       <c r="D2" t="n">
-        <v>218.9022121305744</v>
+        <v>182.7945840847847</v>
       </c>
       <c r="E2" t="n">
-        <v>2.485327318936976</v>
+        <v>2.07304153074534</v>
       </c>
       <c r="F2" t="n">
-        <v>1.085820177020281</v>
+        <v>0.9733276104703453</v>
       </c>
       <c r="G2" t="n">
-        <v>1.569357438783732</v>
+        <v>1.469167677294137</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1403,22 +1383,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>118119.9358461651</v>
+        <v>94798.93044084552</v>
       </c>
       <c r="C3" t="n">
-        <v>343.6858097829544</v>
+        <v>307.8943494785923</v>
       </c>
       <c r="D3" t="n">
-        <v>316.1626963813031</v>
+        <v>274.1537752198871</v>
       </c>
       <c r="E3" t="n">
-        <v>1.891152911704837</v>
+        <v>1.532165327006169</v>
       </c>
       <c r="F3" t="n">
-        <v>2.275615635478002</v>
+        <v>1.650379040683263</v>
       </c>
       <c r="G3" t="n">
-        <v>1.368337557936465</v>
+        <v>1.317043388573777</v>
       </c>
       <c r="H3" t="n">
         <v>0.75</v>
@@ -1429,25 +1409,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>140197.439066414</v>
+        <v>131740.0205410924</v>
       </c>
       <c r="C4" t="n">
-        <v>374.4294847717177</v>
+        <v>362.9600811950157</v>
       </c>
       <c r="D4" t="n">
-        <v>266.4419810624377</v>
+        <v>266.5239313200552</v>
       </c>
       <c r="E4" t="n">
-        <v>1.092366975475169</v>
+        <v>1.068506606346831</v>
       </c>
       <c r="F4" t="n">
-        <v>0.661232162498044</v>
+        <v>0.6673497732640428</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6367446042891487</v>
+        <v>0.6572404006287291</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.7575757575757578</v>
       </c>
     </row>
   </sheetData>
